--- a/+task1/20220917. Задание 01и. Сойка.xlsx
+++ b/+task1/20220917. Задание 01и. Сойка.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sofiasoyka\Desktop\файлы\вуз\Сафронов\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sofiasoyka\Desktop\файлы\вуз\Сафронов\инфа\+task1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFE1CBE-BA40-40DF-8BE0-546A81984F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5C2C7D-9F77-4510-8327-20FC64DFAE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{EBDFDFAF-891D-474E-A02A-B0A42FF2F0A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{EBDFDFAF-891D-474E-A02A-B0A42FF2F0A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -198,7 +198,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -213,19 +213,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -271,35 +258,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -307,14 +270,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -325,28 +284,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -665,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29FCFAE3-F743-E745-9D5D-A78C81807476}">
   <dimension ref="A2:C8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C3"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -691,29 +638,29 @@
         <f>SUM(SQRT(SUM(POWER((58*15+4)/15-(56*24+7)/24,1/3)/0.8,(2*9+1)/9*0.225))/((8*4+3)/4*(3/5)),POWER(POWER(1/0.13,3),1/5),PI()/3)</f>
         <v>4.7206869409286449</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="14" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="18"/>
-      <c r="C4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="18"/>
-      <c r="C5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="18"/>
-      <c r="C6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="18"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="18"/>
-      <c r="C8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -723,226 +670,220 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{538A59EC-FD94-F648-8787-FB8520B17FC8}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="B2:F21"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="29.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16"/>
-      <c r="B1" s="10" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="13"/>
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="12">
+      <c r="C3" s="10">
         <f>(58*15+4)/15-(56*24+7)/24</f>
         <v>1.9750000000000014</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="20"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4">
-        <f>POWER(B2,1/3)</f>
+      <c r="C4" s="4">
+        <f>POWER(C3,1/3)</f>
         <v>1.25464935204655</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="D4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="20"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4">
-        <f>B3/0.8</f>
+      <c r="C5" s="4">
+        <f>C4/0.8</f>
         <v>1.5683116900581875</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="D5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="20"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4">
+      <c r="C6" s="4">
         <f>(2*9+1)/9*0.225</f>
         <v>0.47500000000000003</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="D6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="20"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4">
-        <f>SUM(B4:B5)</f>
+      <c r="C7" s="4">
+        <f>SUM(C5:C6)</f>
         <v>2.0433116900581876</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="20"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4">
-        <f>SQRT(B6)</f>
+      <c r="C8" s="4">
+        <f>SQRT(C7)</f>
         <v>1.4294445389934467</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="D8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="20"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="9">
+      <c r="C9" s="7">
         <f>(8*4+3)/4*(3/5)</f>
         <v>5.25</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="D9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="9">
-        <f>B7/B8</f>
+      <c r="C10" s="7">
+        <f>C8/C9</f>
         <v>0.27227515028446603</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="D10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="9">
+      <c r="C11" s="7">
         <f>POWER(1/0.13,3)</f>
         <v>455.1661356395083</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="D11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="9">
-        <f>POWER(B10,1/5)</f>
+      <c r="C12" s="7">
+        <f>POWER(C11,1/5)</f>
         <v>3.4012142394475813</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="D12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="9">
+      <c r="C13" s="7">
         <f>PI()/3</f>
         <v>1.0471975511965976</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="D13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="23">
-        <f>SUM(B9,B11,B12)</f>
+      <c r="C14" s="7">
+        <f>SUM(C10,C12,C13)</f>
         <v>4.7206869409286449</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="D14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="22"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="22"/>
-      <c r="C15" s="15"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="16"/>
       <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="22"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="22"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="22"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="22"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="22"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="6"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="16"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="16"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="16"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="16"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="16"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="16"/>
+      <c r="E21" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -953,10 +894,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC69222-2218-6445-89C3-111D3903CC7C}">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -968,9 +909,9 @@
     <col min="10" max="10" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="16"/>
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="13"/>
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -980,420 +921,270 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="10">
         <f>(D17*D14+D8)/D14-(D16*D15+D11)/D15</f>
         <v>1.9750000000000014</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="7">
         <v>0.13</v>
       </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4">
         <f>POWER(B2,D5/D7)</f>
         <v>1.25464935204655</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <v>0.22500000000000001</v>
       </c>
-      <c r="F3" s="15"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="4">
         <f>B3/D4</f>
         <v>1.5683116900581875</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>0.8</v>
       </c>
-      <c r="F4" s="15"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="4">
         <f>(D6*D13+D5)/D13*D3</f>
         <v>0.47500000000000003</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>1</v>
       </c>
-      <c r="F5" s="15"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="4">
         <f>SUM(B4:B5)</f>
         <v>2.0433116900581876</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="7">
         <v>2</v>
       </c>
-      <c r="F6" s="15"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="4">
         <f>SQRT(B6)</f>
         <v>1.4294445389934467</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <v>3</v>
       </c>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="7">
         <f>(D12*D8+D7)/D8*(D7/D9)</f>
         <v>5.25</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="7">
         <v>4</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="7">
         <f>B7/B8</f>
         <v>0.27227515028446603</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="7">
         <v>5</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="7">
         <f>POWER(D5/D2,D7)</f>
         <v>455.1661356395083</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="7">
         <v>6</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="7">
         <f>POWER(B10,D5/D9)</f>
         <v>3.4012142394475813</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="7">
         <v>7</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="7">
         <f>PI()/D7</f>
         <v>1.0471975511965976</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="7">
         <v>8</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="7">
         <f>SUM(B9,B11,B12)</f>
         <v>4.7206869409286449</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="7">
         <v>9</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="22"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="9">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7">
         <v>15</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="22"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="9">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="16"/>
+      <c r="D15" s="7">
         <v>24</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="22"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="9">
+      <c r="J15" s="15"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="16"/>
+      <c r="D16" s="7">
         <v>56</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="22"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="9">
+      <c r="I16" s="16"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+      <c r="D17" s="7">
         <v>58</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="22"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="22"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="22"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H25" s="15"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H26" s="15"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H27" s="15"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="D18" s="5"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="16"/>
+      <c r="D19" s="5"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="16"/>
+      <c r="D20" s="5"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I21" s="16"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I22" s="16"/>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I23" s="16"/>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I24" s="16"/>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I25" s="16"/>
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I26" s="16"/>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I27" s="16"/>
+      <c r="K27" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/+task1/20220917. Задание 01и. Сойка.xlsx
+++ b/+task1/20220917. Задание 01и. Сойка.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sofiasoyka\Desktop\файлы\вуз\Сафронов\инфа\+task1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5C2C7D-9F77-4510-8327-20FC64DFAE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DA0324-6B11-405B-BE63-2F52CE33A4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{EBDFDFAF-891D-474E-A02A-B0A42FF2F0A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{EBDFDFAF-891D-474E-A02A-B0A42FF2F0A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -164,7 +164,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -189,13 +189,27 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -262,11 +276,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -277,15 +290,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -296,6 +301,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -613,7 +634,7 @@
   <dimension ref="A2:C8"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -625,42 +646,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <f>SUM(SQRT(SUM(POWER((58*15+4)/15-(56*24+7)/24,1/3)/0.8,(2*9+1)/9*0.225))/((8*4+3)/4*(3/5)),POWER(POWER(1/0.13,3),1/5),PI()/3)</f>
         <v>4.7206869409286449</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
-      <c r="C5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -672,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{538A59EC-FD94-F648-8787-FB8520B17FC8}">
   <dimension ref="B2:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -683,207 +704,207 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="13"/>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="7">
         <f>(58*15+4)/15-(56*24+7)/24</f>
         <v>1.9750000000000014</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <f>POWER(C3,1/3)</f>
         <v>1.25464935204655</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <f>C4/0.8</f>
         <v>1.5683116900581875</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <f>(2*9+1)/9*0.225</f>
         <v>0.47500000000000003</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <f>SUM(C5:C6)</f>
         <v>2.0433116900581876</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <f>SQRT(C7)</f>
         <v>1.4294445389934467</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <f>(8*4+3)/4*(3/5)</f>
         <v>5.25</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <f>C8/C9</f>
         <v>0.27227515028446603</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <f>POWER(1/0.13,3)</f>
         <v>455.1661356395083</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <f>POWER(C11,1/5)</f>
         <v>3.4012142394475813</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <f>PI()/3</f>
         <v>1.0471975511965976</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <f>SUM(C10,C12,C13)</f>
         <v>4.7206869409286449</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="16"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="16"/>
-      <c r="E16" s="5"/>
+      <c r="C16" s="11"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="16"/>
-      <c r="E17" s="5"/>
+      <c r="C17" s="11"/>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="16"/>
-      <c r="E18" s="5"/>
+      <c r="C18" s="11"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="16"/>
-      <c r="E19" s="5"/>
+      <c r="C19" s="11"/>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="16"/>
-      <c r="E20" s="5"/>
+      <c r="C20" s="11"/>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="16"/>
-      <c r="E21" s="5"/>
+      <c r="C21" s="11"/>
+      <c r="E21" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -894,297 +915,297 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC69222-2218-6445-89C3-111D3903CC7C}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="B2:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="13"/>
-      <c r="B1" s="11" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="8"/>
+      <c r="C2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E2" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10">
-        <f>(D17*D14+D8)/D14-(D16*D15+D11)/D15</f>
+      <c r="C3" s="7">
+        <f>(E18*E15+E9)/E15-(E17*E16+E12)/E16</f>
         <v>1.9750000000000014</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="7">
+      <c r="E3" s="6">
         <v>0.13</v>
       </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4">
-        <f>POWER(B2,D5/D7)</f>
+      <c r="C4" s="3">
+        <f>POWER(C3,E6/E8)</f>
         <v>1.25464935204655</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="7">
+      <c r="E4" s="6">
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4">
-        <f>B3/D4</f>
+      <c r="C5" s="3">
+        <f>C4/E5</f>
         <v>1.5683116900581875</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="7">
+      <c r="E5" s="6">
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4">
-        <f>(D6*D13+D5)/D13*D3</f>
+      <c r="C6" s="3">
+        <f>(E7*E14+E6)/E14*E4</f>
         <v>0.47500000000000003</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="7">
+      <c r="E6" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4">
-        <f>SUM(B4:B5)</f>
+      <c r="C7" s="3">
+        <f>SUM(C5:C6)</f>
         <v>2.0433116900581876</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="7">
+      <c r="E7" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4">
-        <f>SQRT(B6)</f>
+      <c r="C8" s="3">
+        <f>SQRT(C7)</f>
         <v>1.4294445389934467</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="7">
+      <c r="E8" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="7">
-        <f>(D12*D8+D7)/D8*(D7/D9)</f>
+      <c r="C9" s="6">
+        <f>(E13*E9+E8)/E9*(E8/E10)</f>
         <v>5.25</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="7">
+      <c r="E9" s="6">
         <v>4</v>
       </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="7">
-        <f>B7/B8</f>
+      <c r="C10" s="6">
+        <f>C8/C9</f>
         <v>0.27227515028446603</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="D10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="7">
+      <c r="E10" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="7">
-        <f>POWER(D5/D2,D7)</f>
+      <c r="C11" s="6">
+        <f>POWER(E6/E3,E8)</f>
         <v>455.1661356395083</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="D11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="7">
+      <c r="E11" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="7">
-        <f>POWER(B10,D5/D9)</f>
+      <c r="C12" s="6">
+        <f>POWER(C11,E6/E10)</f>
         <v>3.4012142394475813</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="D12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="7">
+      <c r="E12" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="7">
-        <f>PI()/D7</f>
+      <c r="C13" s="6">
+        <f>PI()/E8</f>
         <v>1.0471975511965976</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="D13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="7">
+      <c r="E13" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="7">
-        <f>SUM(B9,B11,B12)</f>
+      <c r="C14" s="6">
+        <f>SUM(C10,C12,C13)</f>
         <v>4.7206869409286449</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="D14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="7">
+      <c r="E14" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C15" s="11"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="D15" s="7">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C16" s="11"/>
+      <c r="E16" s="6">
         <v>24</v>
       </c>
-      <c r="J15" s="15"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="D16" s="7">
+      <c r="K16" s="10"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C17" s="11"/>
+      <c r="E17" s="6">
         <v>56</v>
       </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="D17" s="7">
+      <c r="J17" s="11"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C18" s="11"/>
+      <c r="E18" s="6">
         <v>58</v>
       </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="5"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="D18" s="5"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="6"/>
+      <c r="J18" s="11"/>
       <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="16"/>
-      <c r="D19" s="5"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="6"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C19" s="11"/>
+      <c r="E19" s="4"/>
+      <c r="J19" s="11"/>
       <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="16"/>
-      <c r="D20" s="5"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="6"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C20" s="11"/>
+      <c r="E20" s="4"/>
+      <c r="J20" s="11"/>
       <c r="K20" s="5"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I21" s="16"/>
-      <c r="J21" s="6"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C21" s="11"/>
+      <c r="E21" s="4"/>
+      <c r="J21" s="11"/>
       <c r="K21" s="5"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I22" s="16"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="J22" s="11"/>
       <c r="K22" s="5"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I23" s="16"/>
-      <c r="K23" s="5"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I24" s="16"/>
-      <c r="K24" s="5"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I25" s="16"/>
-      <c r="K25" s="5"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I26" s="16"/>
-      <c r="K26" s="5"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I27" s="16"/>
-      <c r="K27" s="5"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="J23" s="11"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="J24" s="11"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="J25" s="11"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="J26" s="11"/>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="J27" s="11"/>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="J28" s="11"/>
+      <c r="L28" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
